--- a/data/publications/orcid/export_to_manual/Uniwersytet_Adama_Mickiewicza_w_Poznaniu_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Adama_Mickiewicza_w_Poznaniu_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2284 +436,2472 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Dostępność rodziców w dzieciństwie a przywiązanie do partnera w związku intymnym</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2021-03-15</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Człowiek i Społeczeństwo</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_2</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Experiences of adults as parents with cancer: a systematic review and thematic synthesis of qualitative studies</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Journal of Psychosocial Oncology</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_3</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Poziom agresywności przyszłych psychologów w kontekście percypowanych postaw ich rodziców</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>E-mentor, 83(1), 5-13. DOI: 10.15219/em83.1449</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_4</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Affiliative behaviors in intimate relationships. A questionnaire proposal</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny, 62(4), 641-655</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_6</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Inteligencja i kreatywność adolescentów w kontekście postaw wychowawczych ich rodziców</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Psychologia Wychowawcza, 15, 63-78. DOI - 10.5604/01.3001.0013.2962</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_7</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Kwestionariusze do badania psychicznych atrybutów dorosłości – podstawy teoretyczne, konstrukcja narzędzi i ich psychometryczna weryfikacja</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne, 24(3), 271–291. DOI: 10.14656/PFP20190301</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_8</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Levinsonowskie Marzenie w odniesieniu do ojcostwa. Badanie mężczyzn w fazie nowicjatu</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa, 23(4), 71-90. DOI - 10.4467/20843879PR.18.023.9952</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_9</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Wychowanie i rodzicielstwo, styl wychowania i styl rodzicielski. Analiza terminologiczna</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Psychologia Wychowawcza,16, 60-72. DOI: 10.5604/01.3001.0013.6361</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_10</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>24</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Doświadczenie nastoletniego macierzyństwa a wybrane aspekty funkcjonowania dorosłych kobiet</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne, 23(1), 102-121. DOI:10.4467/20843879PR.17.007.7039</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_11</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Funkcjonowanie dzieci, młodzieży i dorosłych w rodzinach rozłącznych przestrzennie na skutek migracji ekonomicznych</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Człowiek i Społeczeństwo, 51, 109-126</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_12</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Parental generativity. The concept and measurement</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Polish Psychological Bulletin, 49(3), 344–354. DOI - 10.24425/119501</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_13</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>27</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Płeć metrykalna i psychologiczna a podział obowiązków domowych i satysfakcja seksualna w związkach konsensualnych</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Rocznik Lubuski, 44(1), 325-344.  http://www.roczniklubuski.uz.zgora.pl/wydania/tom_44/Rocznik_Lubuski_44_1.pdf</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_14</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>28</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t xml:space="preserve">Badanie przywiązania u dzieci za pomocą Attachment Story Completion Task </t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne, 23(1), 137-146</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_15</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>29</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Doświadczanie rodzicielstwa i doświadczenia rodzicielskie. Propozycja konceptualizacji</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa, 22(2),15-31</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_16</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>30</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Lucyna Bakiera</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4559-0430</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Family relations in the period of parental initiation</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny, 60(4), 513-530</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Lucyna_Bakiera_17</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>52</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Teresa Chirkowska-Smolak</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3942-5594</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Dorastanie do lojalności. Lojalność wobec organizacji pracowników pokolenia Y</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Człowiek i Społeczeństwo</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Teresa_Chirkowska-Smolak_3</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>53</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Teresa Chirkowska-Smolak</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3942-5594</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Lojalność pracowników wobec organizacji – operacjonalizacja pojęcia oraz weryfikacja psychometryczna Skali Lojalności Wobec Organizacji – badania pilotażowe</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Organizacja i Kierowanie</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Teresa_Chirkowska-Smolak_4</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>67</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Jarosław Grobelny</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4296-402X</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>A conceptual model of the influence of resume components on personnel decisions: A policy-capturing study on resume screening</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Journal of Management Information and Decision Sciences</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Jarosław_Grobelny_3</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>68</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Jarosław Grobelny</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4296-402X</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>A conceptual model of the influence of résumé components on personnel decisions: a policy-capturing study on résumé screening</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Journal of Management Information and Decision Sciences</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Jarosław_Grobelny_4</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>84</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Agnieszka Bogumiła Izdebska</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9050-7742</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Wykorzystanie seksualne dziecka. Wyniki Ogólnopolskiej diagnozy skali i uwarunkowań krzywdzenia dzieci</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Agnieszka_Bogumiła_Izdebska_2</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>85</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Agnieszka Bogumiła Izdebska</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9050-7742</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Relacja lekarza z małoletnim, który doświadczył wykorzystania seksualnego. Uwarunkowania przebiegu kontaktu i jego znaczenie dla procesu diagnozy</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Agnieszka_Bogumiła_Izdebska_3</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>88</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Monika Olga Jańczak</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5739-1124</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Mentalization in clinical practice - A psychodynamic perspective</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Monika_Olga_Jańczak_2</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>89</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Monika Olga Jańczak</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5739-1124</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>MENTALIZATION IN CLINICAL PRACTICE - PSYCHODYNAMIC PERSPECTIVE</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Monika_Olga_Jańczak_3</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>90</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Monika Olga Jańczak</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5739-1124</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Mentalizacja w praktyce klinicznej - perspektywa psychodynamiczna</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2018-12-01</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Monika_Olga_Jańczak_4</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>93</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Monika Olga Jańczak</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5739-1124</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Relationship-specific attachment models in individuals with borderline personality organization</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Monika_Olga_Jańczak_7</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>114</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Łukasz Dominik Kaczmarek</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5565-8334</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Wiedza naukowa a praktyka społeczna na przykładzie psychologii zdrowia: O dyscyplinie naukowej na zakręcie</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Nauka</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Łukasz_Dominik_Kaczmarek_21</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>129</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Paweł Kleka</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0841-0015</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Czy studenci uczą się przewidywania swoich ocen semestralnych? Rola błędu 'przeszacowanej pewnósci' w trafnósci szacowania własnych osiągnięć edukacyjnych</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Dyskursy Młodych Andragogów</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Paweł_Kleka_14</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>130</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Paweł Kleka</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0841-0015</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Development of the cancer-patient social support questionnaire: reliability and validity</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Paweł_Kleka_15</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>131</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Paweł Kleka</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0841-0015</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Development of the cancer-patient social support questionnaire: Reliability and validity</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Paweł_Kleka_16</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>132</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Paweł Kleka</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0841-0015</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Opracowanie oraz analiza trafnosci i rzetelnosci Kwestionariusza Wsparcia Społecznego Pacjent-Opiekun</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Paweł_Kleka_17</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>137</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Paweł Kleka</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0841-0015</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Mentalne wzorce relacyjne jako predyktory statusu związku studiujących kobiet</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Studia Edukacyjne</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Paweł_Kleka_22</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>142</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Paweł Kleka</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0841-0015</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Założenia koncepcyjne oraz cechy psychometryczne kwestionariusza do badania funkcjonalnego aspektu metakompetencji negocjacyjnych (TMOK)</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Studia Oeconomica Posnaniensia</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Paweł_Kleka_27</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>149</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Paweł Kleka</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0841-0015</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Skala Spontanicznósć-Reaktywnósć (S-RS): podstawowe założenia i badania</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Paweł_Kleka_34</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>151</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Paweł Kleka</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0841-0015</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Student wobec oczekiwań dorosłósci</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Paweł_Kleka_36</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>161</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Marek Kowalczyk</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5735-4585</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Mind wandering, activity, and current concerns among adults of different ages. A study using the Task-Unrelated Thoughts Questionnaire</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny/Review of Psychology</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Marek_Kowalczyk_2</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>183</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Natalia Nowaczyk</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2373-0386</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>EVENT-RELATED POTENTIALS STUDIES OF PTSD AFTER INFECTION OF SARS-COV-2 AND NEUROCOVID-19</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Natalia_Nowaczyk_5</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>184</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Natalia Nowaczyk</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2373-0386</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Frontal and callosal white matter changes and their potential effects on neurocognitive functioning in alcohol addicts: A meta-analysis.</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Natalia_Nowaczyk_6</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>193</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Monika Obrębska</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0457-5402</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Zawiść versus uwielbienie, czyli bohaterowie i celebryci zwierciadłem emocji społecznych</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Fabrica Societatis</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Monika_Obrębska_9</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>196</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Monika Obrębska</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0457-5402</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Ciało w kulturze narcyzmu</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Studia Kulturoznawcze</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Monika_Obrębska_12</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>199</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Monika Obrębska</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0457-5402</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Współczesne tabu językowe, czyli o czym nie mówią Polacy</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Człowiek i Społeczeństwo</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Monika_Obrębska_15</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>202</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Monika Obrębska</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0457-5402</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Język, płeć i władza. Analiza leksykalna przemówień programowych polskich premierów</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Socjolingwistyka</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Monika_Obrębska_18</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>204</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Piotr Olesiński</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3320-9092</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>RELACJA INTYMNA OSÓB HOMOSEKSUALNYCH ORAZ TRUDNOŚCI W JEJ NAWIĄZYWANIU I UTRZYMANIU</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Piotr_Olesiński_1</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>218</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Aleksandra Parobkiewicz-Jasielska</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7874-5086</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Dla kogo Brand Hero? O wpływie bohatera marki dziecięcej na intencje zakupowe osób dorosłych</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Człowiek i Społeczeństwo</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Aleksandra_Parobkiewicz-Jasielska_13</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>219</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Aleksandra Parobkiewicz-Jasielska</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7874-5086</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Habitual worry as a factor sustaining depressive symptoms in patients with rheumatoid arthritis</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Aleksandra_Parobkiewicz-Jasielska_14</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>220</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Aleksandra Parobkiewicz-Jasielska</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7874-5086</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Konsumenckie e-rodzicielstwo czyli konsumencka aktywność e-rodziców w Internecie</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Marketing i Rynek</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Aleksandra_Parobkiewicz-Jasielska_15</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>223</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Aleksandra Parobkiewicz-Jasielska</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7874-5086</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Poznawcza Reprezentacja choroby a funkcjonowanie osób z chorobą niedokrwienną serca</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Acta Bio-Optica et Informatica Medica, Inżynieria Biomedyczna</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Aleksandra_Parobkiewicz-Jasielska_18</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>225</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Aleksandra Parobkiewicz-Jasielska</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7874-5086</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>„Podróżą każda miłość jest.” Akceptacja metafor miłości przez kobiety w kontekście twórczości emocjonalnej- doniesienie wstępne</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Annales Universitatis Mariae Curie-Skłodowska. Sectio J, Paedagogia-Psychologia</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Aleksandra_Parobkiewicz-Jasielska_20</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>227</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Aleksandra Parobkiewicz-Jasielska</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7874-5086</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Skuteczność działań marketingowych wykorzystujących seksualizację wizerunku dziewczynek w promowaniu produktów dla dzieci</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Aleksandra_Parobkiewicz-Jasielska_22</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>236</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Robert Poklek</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4727-8806</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Wykorzystanie monitoringu wizyjnego w zapobieganiu samobójstwom więźniów w kontekście odpowiedzialności funkcjonariuszy pełniących służbę na stanowisku „monitorowego”</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2021-02</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Ochrona i Bezpieczeństwo</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Robert_Poklek_1</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>241</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Robert Poklek</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4727-8806</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Rola jednostek penitencjarnych w rozwijaniu potencjału readaptacyjnego i reintegracyjnego skazanych</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Social Studies: Theory and Practice</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Robert_Poklek_6</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>294</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Habitual worry as a factor sustaining depressive symptoms in patients with rheumatoid arthritis</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Michał_Ziarko_9</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>295</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t xml:space="preserve">Habitual worry as a factor sustaining depressive symptoms in patients with rheumatoid arthritis. </t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Michał_Ziarko_10</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>296</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Poznawcza Reprezentacja choroby a funkcjonowanie osób z chorobą niedokrwienną serca</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Acta Bio-Optica et Informatica Medica, Inżynieria Biomedyczna</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Michał_Ziarko_11</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>297</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Report from the 11th National Scientific Conference of the Health Psychology Section of the Polish Psychological Society “Health in a Changing World—Threats and Challenges” Institute of Psychology, Adam Mickiewicz University Poznan: 12–14 May, 2017</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Michał_Ziarko_12</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>298</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Report from the 11th National Scientific Conference of the Health Psychology Section of the Polish Psychological Society “Health in a Changing World—Threats and Challenges” Institute of Psychology, Adam Mickiewicz University Poznan: 12–14 May, 2017.</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Michał_Ziarko_13</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>299</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Różnice płciowe w rozwoju wczesnych nieadaptacyjnych schematów. Badania prowadzone na grupie młodzieży doznającej przemocy w rodzinie</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Michał_Ziarko_14</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>300</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t xml:space="preserve">Człowiek w sytuacji choroby przewlekłej. </t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t>Michał_Ziarko_15</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>302</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Nawrót choroby nowotworowej – emocjonalne konsekwencje i możliwości psychologicznej pomocy</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Wielkopolskiego Centrum Onkologii / Letters in Oncology Science</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Michał_Ziarko_17</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>303</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Nawrót choroby nowotworowej – emocjonalne konsekwencje i możliwości psychologicznej pomocy.</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Wielkopolskiego Centrum Onkologii</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Michał_Ziarko_18</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>305</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Wiedza naukowa a praktyka społeczna na przykładzie psychologii zdrowia: O dyscyplinie naukowej na zakręcie</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Nauka</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Michał_Ziarko_20</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>306</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Michał Ziarko</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7530-3167</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Wiedza naukowa a praktyka społeczna na przykładzie psychologii zdrowia: O dyscyplinie naukowej na zakręcie.</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Nauka</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Michał_Ziarko_21</t>
         </is>

--- a/data/publications/orcid/export_to_manual/Uniwersytet_Adama_Mickiewicza_w_Poznaniu_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Adama_Mickiewicza_w_Poznaniu_titles.xlsx
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Monika_Obrębska_12</t>
+          <t>Monika_Obrębska_11</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Monika_Obrębska_15</t>
+          <t>Monika_Obrębska_14</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Monika_Obrębska_18</t>
+          <t>Monika_Obrębska_17</t>
         </is>
       </c>
     </row>
